--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="12825" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="伊萝莲" sheetId="3" r:id="rId1"/>
@@ -953,7 +953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,9 +967,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1288,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1446,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1586,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1658,7 +1655,7 @@
       <c r="D29" s="2">
         <v>20</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
@@ -1682,7 +1679,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D14:D29)</f>
-        <v>16.875</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1816,7 +1813,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D8,D14:D29,D35:D41)</f>
-        <v>16.6666666666667</v>
+        <v>16.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2006,8 +2003,6 @@
         <v>18.7777777777778</v>
       </c>
     </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>47</v>
@@ -2119,7 +2114,7 @@
       <c r="D23" s="2">
         <v>20</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
@@ -2134,7 +2129,7 @@
       <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
@@ -2149,7 +2144,7 @@
       <c r="D25" s="2">
         <v>16</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
@@ -2164,7 +2159,7 @@
       <c r="D26" s="2">
         <v>15</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
@@ -2179,7 +2174,7 @@
       <c r="D27" s="2">
         <v>20</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
@@ -2194,7 +2189,7 @@
       <c r="D28" s="2">
         <v>20</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
@@ -2209,7 +2204,7 @@
       <c r="D29" s="2">
         <v>18</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
@@ -2224,7 +2219,7 @@
       <c r="D30" s="2">
         <v>20</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
@@ -2239,7 +2234,7 @@
       <c r="D31" s="2">
         <v>20</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
@@ -2254,7 +2249,7 @@
       <c r="D32" s="2">
         <v>17</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
@@ -2281,8 +2276,6 @@
         <v>18.6470588235294</v>
       </c>
     </row>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>33</v>
@@ -2364,8 +2357,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>40</v>
@@ -2744,7 +2735,7 @@
       <c r="D28" s="2">
         <v>16</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
@@ -2759,7 +2750,7 @@
       <c r="D29" s="2">
         <v>20</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
@@ -2774,7 +2765,7 @@
       <c r="D30" s="2">
         <v>15</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
@@ -2933,7 +2924,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3219,7 +3210,7 @@
       <c r="D23" s="2">
         <v>20</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
@@ -3234,7 +3225,7 @@
       <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
@@ -3249,7 +3240,7 @@
       <c r="D25" s="2">
         <v>16</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
@@ -3264,7 +3255,7 @@
       <c r="D26" s="2">
         <v>15</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
@@ -3279,7 +3270,7 @@
       <c r="D27" s="2">
         <v>20</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
@@ -3294,7 +3285,7 @@
       <c r="D28" s="2">
         <v>20</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
@@ -3309,7 +3300,7 @@
       <c r="D29" s="2">
         <v>18</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
@@ -3324,7 +3315,7 @@
       <c r="D30" s="2">
         <v>20</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
@@ -3339,7 +3330,7 @@
       <c r="D31" s="2">
         <v>20</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
@@ -3354,7 +3345,7 @@
       <c r="D32" s="2">
         <v>17</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
@@ -3485,7 +3476,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3581,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3636,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3691,7 +3682,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C11:C19)</f>
-        <v>16.6666666666667</v>
+        <v>16.8888888888889</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3769,7 +3760,7 @@
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C5,C11:C19,C25:C28)</f>
-        <v>16.3529411764706</v>
+        <v>16.4705882352941</v>
       </c>
     </row>
   </sheetData>
@@ -3997,10 +3988,10 @@
       <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>18</v>
       </c>
     </row>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1707,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1802,7 +1802,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>14.5714285714286</v>
+        <v>14.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1813,7 +1813,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D8,D14:D29,D35:D41)</f>
-        <v>16.7333333333333</v>
+        <v>16.7666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1828,8 +1828,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2287,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2354,7 +2354,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>17</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2365,7 +2365,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D32,D38:D41)</f>
-        <v>18.4666666666667</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2925,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3383,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3450,7 +3450,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>17</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3461,7 +3461,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D32,D38:D41)</f>
-        <v>18.5333333333333</v>
+        <v>18.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3775,7 +3775,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C25:C27)</f>
-        <v>17</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C5,C11:C19,C25:C27)</f>
-        <v>17.1875</v>
+        <v>17.25</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="伊萝莲" sheetId="3" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>孔雀王·霍利</t>
   </si>
   <si>
-    <t>精灵王·大羽</t>
+    <t>精灵王子·大羽</t>
   </si>
   <si>
     <t>双头法师</t>
@@ -1285,7 +1285,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -2379,8 +2379,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="14685" windowHeight="10800" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="伊萝莲" sheetId="3" r:id="rId1"/>
+    <sheet name="塞莱斯塔" sheetId="9" r:id="rId1"/>
     <sheet name="喵喵" sheetId="4" r:id="rId2"/>
-    <sheet name="迅" sheetId="1" r:id="rId3"/>
-    <sheet name="塞莱斯塔" sheetId="9" r:id="rId4"/>
+    <sheet name="伊萝莲" sheetId="3" r:id="rId3"/>
+    <sheet name="迅" sheetId="1" r:id="rId4"/>
     <sheet name="帝国" sheetId="5" r:id="rId5"/>
     <sheet name="隐秘" sheetId="7" r:id="rId6"/>
     <sheet name="蛮石" sheetId="8" r:id="rId7"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="94">
   <si>
     <t>名称</t>
   </si>
@@ -48,16 +48,127 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>电流激活</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>旷野祭师</t>
+  </si>
+  <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
+    <t>沉重否定</t>
+  </si>
+  <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>强行捕猎</t>
+  </si>
+  <si>
+    <t>学仆-能源型</t>
+  </si>
+  <si>
+    <t>小计：</t>
+  </si>
+  <si>
+    <t>蓝色卡等：</t>
+  </si>
+  <si>
+    <t>暴怒野人</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>诱敌草人</t>
+  </si>
+  <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
+    <t>缄言法师</t>
+  </si>
+  <si>
+    <t>飞斧狂人</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>飞斧女豪</t>
+  </si>
+  <si>
+    <t>幻象龙</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>贪食白龙</t>
+  </si>
+  <si>
+    <t>魔像-钢翼仲裁者</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>孔雀王·霍利</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>精灵王·大羽</t>
+  </si>
+  <si>
+    <t>流星-7号</t>
+  </si>
+  <si>
+    <t>双头法师</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>火蛇巫女·沃凡瑞拉</t>
+  </si>
+  <si>
+    <t>荒原暴君·血眼</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>热血摇滚·凯</t>
+  </si>
+  <si>
     <t>圣殿斥候</t>
   </si>
   <si>
-    <t>蓝色</t>
-  </si>
-  <si>
-    <t>学仆-观测型</t>
-  </si>
-  <si>
-    <t>沉重否定</t>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>炫目神光</t>
   </si>
   <si>
     <t>圣殿弩手</t>
@@ -69,238 +180,133 @@
     <t>光明惩戒</t>
   </si>
   <si>
-    <t>小计：</t>
-  </si>
-  <si>
-    <t>蓝色卡等：</t>
-  </si>
-  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>紫色</t>
+    <t>传记·钢铁守卫</t>
   </si>
   <si>
     <t>圣殿御卫</t>
   </si>
   <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>克隆术</t>
+    <t>白袍主教</t>
   </si>
   <si>
     <t>圣殿骑士</t>
   </si>
   <si>
-    <t>缄言法师</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
     <t>召集护卫</t>
   </si>
   <si>
     <t>禁卫百夫长</t>
   </si>
   <si>
-    <t>幻象龙</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
     <t>禁卫指挥官</t>
   </si>
   <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
     <t>花光春影·安娜贝尔</t>
   </si>
   <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>流星-7号</t>
-  </si>
-  <si>
     <t>明日香·露娜</t>
   </si>
   <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
     <t>白袍·伊恩</t>
   </si>
   <si>
-    <t>火蛇巫女·沃凡瑞拉</t>
-  </si>
-  <si>
     <t>武圣·云长</t>
   </si>
   <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>天降碎石</t>
-  </si>
-  <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>学仆-能源型</t>
-  </si>
-  <si>
-    <t>暴怒野人</t>
-  </si>
-  <si>
-    <t>诱敌草人</t>
-  </si>
-  <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>源力苏醒</t>
-  </si>
-  <si>
-    <t>贪食白龙</t>
-  </si>
-  <si>
-    <t>魔像-钢翼仲裁者</t>
-  </si>
-  <si>
-    <t>荒原暴君·血眼</t>
-  </si>
-  <si>
-    <t>树木之怒</t>
+    <t>雪庐草人</t>
+  </si>
+  <si>
+    <t>白羊药师</t>
+  </si>
+  <si>
+    <t>苦行武僧</t>
   </si>
   <si>
     <t>飓风术</t>
   </si>
   <si>
-    <t>执剑道者</t>
+    <t>叶幻师</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>精灵王子·大羽</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>鬼童-7号</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>No.6沃凡瑞拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>血蜥头领</t>
+  </si>
+  <si>
+    <t>鸵鸟王·霍利</t>
+  </si>
+  <si>
+    <t>旷野游侠·大羽</t>
+  </si>
+  <si>
+    <t>比尔&amp;比利</t>
+  </si>
+  <si>
+    <t>血饮烈斧·凯</t>
+  </si>
+  <si>
+    <t>蛮石卡等：</t>
   </si>
   <si>
     <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>叶幻师</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>孔雀王·霍利</t>
-  </si>
-  <si>
-    <t>精灵王子·大羽</t>
-  </si>
-  <si>
-    <t>双头法师</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>热血摇滚·凯</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>鬼童-7号</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>No.6沃凡瑞拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>鸵鸟王·霍利</t>
-  </si>
-  <si>
-    <t>旷野游侠·大羽</t>
-  </si>
-  <si>
-    <t>比尔&amp;比利</t>
-  </si>
-  <si>
-    <t>血饮烈斧·凯</t>
-  </si>
-  <si>
-    <t>蛮石卡等：</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1285,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1320,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1348,12 +1354,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1362,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1373,10 +1379,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1401,17 +1407,25 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
@@ -1420,44 +1434,36 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <f>AVERAGE(D2:D8)</f>
-        <v>18.2857142857143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>15</v>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f>AVERAGE(D2:D9)</f>
+        <v>18.25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1465,13 +1471,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1479,13 +1485,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1493,13 +1499,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1507,13 +1513,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1521,13 +1527,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1535,125 +1541,132 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
         <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2">
-        <v>15</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -1671,113 +1684,113 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D14:D29)</f>
-        <v>17</v>
+        <f>AVERAGE(D15:D29)</f>
+        <v>19.2666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="14" customHeight="1" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>7</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1794,31 +1807,30 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>14.7142857142857</v>
+        <v>17.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D8,D14:D29,D35:D41)</f>
-        <v>16.7666666666667</v>
+        <f>AVERAGE(D2:D9,D15:D29,D35:D41)</f>
+        <v>18.6333333333333</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1828,8 +1840,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1854,13 +1866,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -1868,21 +1880,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1896,7 +1908,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1910,7 +1922,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1924,7 +1936,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1933,12 +1945,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1952,7 +1964,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1966,7 +1978,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1992,23 +2004,23 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>18.7777777777778</v>
+        <v>18.4444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -2019,10 +2031,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -2033,38 +2045,38 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -2075,10 +2087,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -2089,10 +2101,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -2103,10 +2115,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -2118,10 +2130,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -2136,55 +2148,55 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
         <v>20</v>
@@ -2193,101 +2205,98 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <f>AVERAGE(D16:D29)</f>
+        <v>19.4285714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
         <v>18</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="2">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2">
-        <v>20</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2">
-        <v>20</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>17</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <f>AVERAGE(D16:D32)</f>
-        <v>18.6470588235294</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2295,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -2306,24 +2315,24 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>7</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -2346,26 +2355,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D38:D41)</f>
-        <v>17.25</v>
+        <f>AVERAGE(D35:D41)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D10,D16:D32,D38:D41)</f>
-        <v>18.5</v>
+        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
+        <v>18.8</v>
       </c>
     </row>
   </sheetData>
@@ -2379,8 +2388,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2411,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -2433,7 +2442,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2447,7 +2456,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2456,12 +2465,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2470,12 +2479,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2489,7 +2498,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2503,7 +2512,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2517,119 +2526,119 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>18</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>16</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
+        <f>AVERAGE(D2:D10)</f>
+        <v>18.8888888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>AVERAGE(D2:D14)</f>
-        <v>18.6923076923077</v>
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -2640,24 +2649,24 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -2668,104 +2677,94 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2">
         <v>20</v>
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>15</v>
-      </c>
-      <c r="F30" s="5"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
@@ -2774,106 +2773,114 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <f>AVERAGE(D20:D30)</f>
-        <v>18.7272727272727</v>
+      <c r="D32" s="2">
+        <f>AVERAGE(D16:D29)</f>
+        <v>18.1428571428571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="14" customHeight="1" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D40" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2890,26 +2897,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D36:D41)</f>
-        <v>16.1666666666667</v>
+        <f>AVERAGE(D35:D41)</f>
+        <v>15.4285714285714</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D14,D20:D30,D36:D41)</f>
-        <v>18.2</v>
+        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
+        <v>17.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2932,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2950,7 +2957,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2964,21 +2971,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2992,7 +2999,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -3006,7 +3013,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3015,12 +3022,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3029,32 +3036,32 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3062,105 +3069,105 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <f>AVERAGE(D2:D10)</f>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -3171,16 +3178,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3188,244 +3195,237 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="2">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2">
-        <v>20</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2">
-        <v>20</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>17</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="D33" s="2">
+        <f>AVERAGE(D19:D30)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <f>AVERAGE(D16:D32)</f>
-        <v>18.6470588235294</v>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3442,30 +3442,31 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D38:D41)</f>
-        <v>17.25</v>
+        <f>AVERAGE(D36:D41)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D10,D16:D32,D38:D41)</f>
-        <v>18.5666666666667</v>
+        <f>AVERAGE(D2:D13,D19:D30,D36:D41)</f>
+        <v>18.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3473,10 +3474,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3499,7 +3500,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3510,10 +3511,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -3521,10 +3522,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -3532,141 +3533,147 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>19.25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>19</v>
-      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>19.6666666666667</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -3674,65 +3681,65 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C11:C19)</f>
-        <v>16.8888888888889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>13</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C13:C20)</f>
+        <v>17.75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>8</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3"/>
@@ -3740,27 +3747,32 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C26:C29)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C25:C28)</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C5,C11:C19,C25:C28)</f>
-        <v>16.4705882352941</v>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C7,C13:C20,C26:C29)</f>
+        <v>17.4444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -3772,10 +3784,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3798,18 +3810,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3820,59 +3832,59 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>17.75</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>17.2</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -3882,18 +3894,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3904,7 +3916,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3920,13 +3932,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3934,33 +3946,27 @@
         <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>17</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -3968,54 +3974,54 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C11:C19)</f>
-        <v>17</v>
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>17.8571428571429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3">
-        <v>17</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -4023,32 +4029,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
-        <v>17.3333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C19,C25:C27)</f>
-        <v>17.25</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C26)</f>
+        <v>17.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4063,7 +4064,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4086,7 +4087,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4097,7 +4098,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4108,18 +4109,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -4130,7 +4131,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -4141,63 +4142,63 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>19.75</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.1428571428571</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -4208,18 +4209,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -4230,21 +4231,21 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
         <v>20</v>
@@ -4252,7 +4253,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -4263,10 +4264,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -4274,10 +4275,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <v>20</v>
@@ -4285,7 +4286,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
         <v>8</v>
@@ -4306,63 +4307,63 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2">
-        <f>AVERAGE(C15:C23)</f>
-        <v>20</v>
+        <f>AVERAGE(C14:C23)</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
@@ -4383,26 +4384,26 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3">
         <f>AVERAGE(C29:C33)</f>
-        <v>16.8</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4">
-        <f>AVERAGE(C2:C9,C15:C23,C29:C33)</f>
-        <v>19.1818181818182</v>
+        <f>AVERAGE(C2:C8,C14:C23,C29:C33)</f>
+        <v>18.9545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -4414,10 +4415,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4440,10 +4441,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>19</v>
@@ -4451,21 +4452,21 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -4473,141 +4474,147 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>17.875</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>19</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>18.6666666666667</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -4615,74 +4622,79 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C15:C19)</f>
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>16</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C16:C20)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="E27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
+      <c r="E28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C26:C27)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>17.2666666666667</v>
+      <c r="B33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C10,C16:C20,C26:C27)</f>
+        <v>18.0625</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="1"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>名称</t>
   </si>
@@ -119,16 +119,13 @@
     <t>全数否定</t>
   </si>
   <si>
-    <t>学仆-能源型</t>
-  </si>
-  <si>
     <t>破魔系教授</t>
   </si>
   <si>
+    <t>传记·海市蜃楼·蛇</t>
+  </si>
+  <si>
     <t>克隆术</t>
-  </si>
-  <si>
-    <t>传记·海市蜃楼·蛇</t>
   </si>
   <si>
     <t>缄言法师</t>
@@ -1217,8 +1214,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1291,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1324,7 +1321,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>19.6666666666667</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1524,7 +1521,7 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
-        <v>19.7368421052632</v>
+        <v>19.5263157894737</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1533,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1616,38 +1613,38 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>18.6666666666667</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>18.4</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
@@ -1676,10 +1673,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1687,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1698,7 +1695,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1709,22 +1706,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1732,20 +1723,26 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C13:C19)</f>
-        <v>18.8571428571429</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>19.4285714285714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1753,10 +1750,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1764,22 +1761,16 @@
         <v>38</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3">
-        <v>18</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1787,32 +1778,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>18.3333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C7,C13:C19,C25:C27)</f>
-        <v>18.625</v>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C26)</f>
+        <v>18.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1813,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1850,7 +1836,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1861,7 +1847,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1872,7 +1858,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1883,7 +1869,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1894,7 +1880,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1905,7 +1891,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -1939,7 +1925,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1950,18 +1936,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1972,7 +1958,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1983,7 +1969,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1994,7 +1980,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2005,7 +1991,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -2033,12 +2019,12 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>19.4285714285714</v>
+        <v>19.5714285714286</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -2049,7 +2035,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2060,18 +2046,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
@@ -2099,7 +2085,7 @@
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(C25:C28)</f>
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2107,11 +2093,11 @@
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C28)</f>
-        <v>18.4117647058824</v>
+        <v>18.5294117647059</v>
       </c>
     </row>
   </sheetData>
@@ -2123,10 +2109,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2149,7 +2135,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2160,29 +2146,29 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2193,18 +2179,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2215,77 +2201,77 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>17.625</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>17.1111111111111</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -2293,30 +2279,36 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2324,74 +2316,79 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C15:C19)</f>
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>17</v>
+      <c r="C23" s="2">
+        <f>AVERAGE(C16:C20)</f>
+        <v>18.8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="E27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
+      <c r="E28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
+      <c r="C30" s="3">
+        <f>AVERAGE(C26:C27)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>17.6666666666667</v>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C10,C16:C20,C26:C27)</f>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>名称</t>
   </si>
@@ -131,6 +131,9 @@
     <t>缄言法师</t>
   </si>
   <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
     <t>幻域秘树</t>
   </si>
   <si>
@@ -158,12 +161,12 @@
     <t>炫目神光</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>圣殿弩手</t>
   </si>
   <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
     <t>明日之音·露娜</t>
   </si>
   <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
@@ -206,7 +212,7 @@
     <t>帝国卡等：</t>
   </si>
   <si>
-    <t>苦行武僧</t>
+    <t>长耳庄巧姑</t>
   </si>
   <si>
     <t>飓风术</t>
@@ -218,28 +224,22 @@
     <t>龟族僧人</t>
   </si>
   <si>
-    <t>叶幻师</t>
-  </si>
-  <si>
     <t>连击</t>
   </si>
   <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
     <t>风卷残云</t>
   </si>
   <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
+    <t>墨轩隐士</t>
   </si>
   <si>
     <t>御风武者</t>
   </si>
   <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
+    <t>蟠桃会</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
-        <v>19.5263157894737</v>
+        <v>19.8421052631579</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1533,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1684,10 +1684,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1706,16 +1706,22 @@
         <v>35</v>
       </c>
       <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1723,26 +1729,20 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>19.4285714285714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C12:C19)</f>
+        <v>19.375</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1750,10 +1750,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1761,16 +1761,22 @@
         <v>38</v>
       </c>
       <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1778,27 +1784,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
+      <c r="C30" s="3">
+        <f>AVERAGE(C25:C27)</f>
         <v>18.3333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C18,C24:C26)</f>
-        <v>18.8666666666667</v>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C6,C12:C19,C25:C27)</f>
+        <v>18.875</v>
       </c>
     </row>
   </sheetData>
@@ -1810,10 +1821,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1836,7 +1847,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1847,7 +1858,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1858,7 +1869,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1875,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1894,45 +1905,45 @@
         <v>45</v>
       </c>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>20</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.2857142857143</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -1942,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1950,10 +1961,10 @@
         <v>48</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1961,7 +1972,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1983,10 +1994,10 @@
         <v>51</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1994,16 +2005,22 @@
         <v>52</v>
       </c>
       <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2011,26 +2028,20 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C13:C19)</f>
+      <c r="C23" s="2">
+        <f>AVERAGE(C14:C20)</f>
         <v>19.5714285714286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2038,10 +2049,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2049,10 +2060,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2060,44 +2071,66 @@
         <v>56</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3">
         <v>8</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C25:C28)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="C33" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C7,C13:C19,C25:C28)</f>
-        <v>18.5294117647059</v>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C8,C14:C20,C26:C30)</f>
+        <v>18.1578947368421</v>
       </c>
     </row>
   </sheetData>
@@ -2109,10 +2142,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2135,7 +2168,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2146,40 +2179,40 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2190,7 +2223,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2201,7 +2234,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2212,7 +2245,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -2223,92 +2256,86 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>17.1111111111111</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>15.2</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2316,79 +2343,74 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C16:C20)</f>
-        <v>18.8</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C17:C19)</f>
+        <v>14.6666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="E27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="E28">
-        <v>9</v>
-      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C10,C16:C20,C26:C27)</f>
-        <v>17.5</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C11,C17:C19,C25:C26)</f>
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="17220" windowHeight="11340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -113,12 +113,12 @@
     <t>沉重否定</t>
   </si>
   <si>
-    <t>虚化术</t>
-  </si>
-  <si>
     <t>全数否定</t>
   </si>
   <si>
+    <t>隐形术</t>
+  </si>
+  <si>
     <t>破魔系教授</t>
   </si>
   <si>
@@ -173,12 +173,12 @@
     <t>光明惩戒</t>
   </si>
   <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
     <t>传记·钢铁守卫</t>
   </si>
   <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -191,9 +191,6 @@
     <t>召集护卫</t>
   </si>
   <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
@@ -233,10 +230,10 @@
     <t>风卷残云</t>
   </si>
   <si>
+    <t>御风武者</t>
+  </si>
+  <si>
     <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>御风武者</t>
   </si>
   <si>
     <t>蟠桃会</t>
@@ -1215,7 +1212,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1465,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1509,7 +1506,7 @@
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C26:C30)</f>
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1521,7 +1518,7 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
-        <v>19.8421052631579</v>
+        <v>19.8947368421053</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1533,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1576,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1602,38 +1599,38 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>18.4</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>18.25</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -1687,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1741,8 +1738,8 @@
         <v>16</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C12:C19)</f>
-        <v>19.375</v>
+        <f>AVERAGE(C11:C19)</f>
+        <v>19.4444444444444</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1764,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1797,7 +1794,7 @@
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C25:C27)</f>
-        <v>18.3333333333333</v>
+        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1808,8 +1805,8 @@
         <v>40</v>
       </c>
       <c r="C33" s="4">
-        <f>AVERAGE(C2:C6,C12:C19,C25:C27)</f>
-        <v>18.875</v>
+        <f>AVERAGE(C2:C5,C11:C19,C25:C27)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1821,10 +1818,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1886,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1941,7 +1938,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>19.2857142857143</v>
+        <v>19.5714285714286</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1953,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1964,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2012,15 +2009,9 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2028,20 +2019,26 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C14:C20)</f>
-        <v>19.5714285714286</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2049,10 +2046,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2060,10 +2057,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2071,10 +2068,10 @@
         <v>56</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2082,22 +2079,16 @@
         <v>57</v>
       </c>
       <c r="B29" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>14</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
@@ -2105,32 +2096,27 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C26:C30)</f>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="C32" s="3">
+        <f>AVERAGE(C25:C29)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C8,C14:C20,C26:C30)</f>
-        <v>18.1578947368421</v>
+      <c r="B35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
+        <v>18.1111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -2144,8 +2130,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2168,7 +2154,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2179,7 +2165,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2190,7 +2176,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2201,7 +2187,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2212,7 +2198,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2223,7 +2209,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2234,7 +2220,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2245,7 +2231,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -2256,7 +2242,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2267,7 +2253,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2301,29 +2287,29 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -2351,12 +2337,12 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C17:C19)</f>
-        <v>14.6666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -2367,7 +2353,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2406,11 +2392,11 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C11,C17:C19,C25:C26)</f>
-        <v>15.2</v>
+        <v>14.8666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="11340" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="13680" windowHeight="10620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -107,9 +107,15 @@
     <t>蛮石卡等：</t>
   </si>
   <si>
+    <t>洞悉之眼</t>
+  </si>
+  <si>
     <t>电流激活</t>
   </si>
   <si>
+    <t>学仆-观测型</t>
+  </si>
+  <si>
     <t>沉重否定</t>
   </si>
   <si>
@@ -173,10 +179,10 @@
     <t>光明惩戒</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
   </si>
   <si>
     <t>圣殿御卫</t>
@@ -1212,615 +1218,6 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>20</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C26:C30)</f>
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
-        <v>19.8947368421053</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>18.25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C11:C19)</f>
-        <v>19.4444444444444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
-        <v>18.6666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C19,C25:C27)</f>
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1844,10 +1241,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -1855,7 +1252,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1866,10 +1263,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1877,21 +1274,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -1899,31 +1296,662 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C13:C20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
+        <v>19.9473684210526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>17.5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C13:C21)</f>
+        <v>19.6666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C27:C29)</f>
+        <v>18.6666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C7,C13:C21,C27:C29)</f>
+        <v>18.7777777777778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
@@ -1938,35 +1966,35 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>19.5714285714286</v>
+        <v>19.8571428571429</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1977,7 +2005,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1988,7 +2016,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1999,13 +2027,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2027,12 +2055,12 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
-        <v>19</v>
+        <v>19.6666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -2043,29 +2071,29 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3">
         <v>6</v>
@@ -2076,7 +2104,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
@@ -2104,7 +2132,7 @@
       </c>
       <c r="C32" s="3">
         <f>AVERAGE(C25:C29)</f>
-        <v>15</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2112,11 +2140,11 @@
         <v>23</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
-        <v>18.1111111111111</v>
+        <v>18.5555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -2130,8 +2158,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2154,7 +2182,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2165,7 +2193,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2176,7 +2204,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2187,7 +2215,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2198,7 +2226,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2209,7 +2237,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2220,7 +2248,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2231,18 +2259,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2253,7 +2281,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2281,13 +2309,13 @@
       </c>
       <c r="C14" s="1">
         <f>AVERAGE(C2:C11)</f>
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -2298,7 +2326,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2309,7 +2337,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
@@ -2342,18 +2370,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2384,7 +2412,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2392,11 +2420,11 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C11,C17:C19,C25:C26)</f>
-        <v>14.8666666666667</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13680" windowHeight="10620" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="10890" windowHeight="11010" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>名称</t>
   </si>
@@ -41,9 +41,6 @@
     <t>卡等</t>
   </si>
   <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
     <t>旷野祭师</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
     <t>血饮烈斧·凯</t>
   </si>
   <si>
+    <t>蛮古撼地兽</t>
+  </si>
+  <si>
     <t>原野大祭师·鲁玛</t>
   </si>
   <si>
@@ -107,9 +107,6 @@
     <t>蛮石卡等：</t>
   </si>
   <si>
-    <t>洞悉之眼</t>
-  </si>
-  <si>
     <t>电流激活</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>缄言法师</t>
   </si>
   <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
     <t>幻域秘树</t>
   </si>
   <si>
@@ -179,12 +173,12 @@
     <t>光明惩戒</t>
   </si>
   <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
     <t>传记·钢铁守卫</t>
   </si>
   <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>明日之音·露娜</t>
   </si>
   <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
@@ -215,7 +206,7 @@
     <t>帝国卡等：</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
+    <t>苦行武僧</t>
   </si>
   <si>
     <t>飓风术</t>
@@ -242,7 +233,7 @@
     <t>墨轩隐士</t>
   </si>
   <si>
-    <t>蟠桃会</t>
+    <t>万物之灵</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1215,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1244,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -1263,7 +1254,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1277,63 +1268,63 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>20</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1341,10 +1332,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -1352,10 +1343,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1366,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1377,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1385,65 +1376,65 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C21" s="2">
+        <f>AVERAGE(C11:C18)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <v>20</v>
@@ -1451,47 +1442,41 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
@@ -1499,32 +1484,27 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C26:C30)</f>
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="C32" s="3">
+        <f>AVERAGE(C24:C29)</f>
+        <v>19.6666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
-        <v>19.9473684210526</v>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C5,C11:C18,C24:C29)</f>
+        <v>19.8888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1516,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1565,10 +1545,10 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1576,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1590,12 +1570,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1609,52 +1589,52 @@
         <v>28</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>17.5</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>18.8</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1679,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1687,10 +1667,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1698,7 +1678,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1709,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1720,54 +1700,54 @@
         <v>36</v>
       </c>
       <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C12:C19)</f>
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C13:C21)</f>
-        <v>19.6666666666667</v>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1775,66 +1755,44 @@
         <v>39</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C25:C27)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C27:C29)</f>
-        <v>18.6666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C7,C13:C21,C27:C29)</f>
-        <v>18.7777777777778</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C6,C12:C19,C25:C27)</f>
+        <v>19.25</v>
       </c>
     </row>
   </sheetData>
@@ -1846,10 +1804,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1872,7 +1830,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1883,7 +1841,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1894,7 +1852,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1905,18 +1863,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1927,52 +1885,52 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.8571428571429</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1983,21 +1941,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -2005,7 +1963,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2016,25 +1974,19 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>19</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -2042,109 +1994,93 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C13:C18)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>19.6666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C24:C27)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C25:C29)</f>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
-        <v>18.5555555555556</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C7,C13:C18,C24:C27)</f>
+        <v>18.875</v>
       </c>
     </row>
   </sheetData>
@@ -2156,13 +2092,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -2182,7 +2118,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2193,7 +2129,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2204,7 +2140,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2215,7 +2151,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2226,7 +2162,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2237,7 +2173,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2248,7 +2184,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2259,91 +2195,91 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>15.3</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>15.5555555555556</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2358,19 +2294,19 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C17:C19)</f>
-        <v>13</v>
+        <f>AVERAGE(C16:C19)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -2381,22 +2317,19 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="E27">
-        <v>9</v>
-      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -2405,14 +2338,14 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2420,11 +2353,11 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C11,C17:C19,C25:C26)</f>
-        <v>15</v>
+        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
+        <v>16.1333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10890" windowHeight="11010" firstSheet="1"/>
+    <workbookView windowWidth="12345" windowHeight="10920" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>名称</t>
   </si>
@@ -62,12 +62,12 @@
     <t>诱敌草人</t>
   </si>
   <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
     <t>活力仙人掌</t>
   </si>
   <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -107,6 +107,9 @@
     <t>蛮石卡等：</t>
   </si>
   <si>
+    <t>洞悉之眼</t>
+  </si>
+  <si>
     <t>电流激活</t>
   </si>
   <si>
@@ -134,10 +137,13 @@
     <t>缄言法师</t>
   </si>
   <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
     <t>幻域秘树</t>
   </si>
   <si>
-    <t>幻象龙</t>
+    <t>幻象巨龙</t>
   </si>
   <si>
     <t>米拉方舟</t>
@@ -194,6 +200,9 @@
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
     <t>明日之音·露娜</t>
   </si>
   <si>
@@ -206,7 +215,7 @@
     <t>帝国卡等：</t>
   </si>
   <si>
-    <t>苦行武僧</t>
+    <t>长耳庄巧姑</t>
   </si>
   <si>
     <t>飓风术</t>
@@ -225,9 +234,6 @@
   </si>
   <si>
     <t>风卷残云</t>
-  </si>
-  <si>
-    <t>御风武者</t>
   </si>
   <si>
     <t>墨轩隐士</t>
@@ -1206,9 +1212,640 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C11:C19)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C25:C30)</f>
+        <v>19.8333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C5,C11:C19,C25:C30)</f>
+        <v>19.9473684210526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>18</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C13:C21)</f>
+        <v>19.6666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C27:C29)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C7,C13:C21,C27:C29)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1232,10 +1869,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -1243,7 +1880,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1254,10 +1891,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1265,66 +1902,66 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1332,21 +1969,21 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1354,10 +1991,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1365,10 +2002,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1376,10 +2013,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1403,75 +2040,69 @@
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C11:C18)</f>
-        <v>20</v>
+        <f>AVERAGE(C13:C18)</f>
+        <v>19.8333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3"/>
@@ -1479,32 +2110,27 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C24:C29)</f>
-        <v>19.6666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="C31" s="3">
+        <f>AVERAGE(C24:C28)</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C5,C11:C18,C24:C29)</f>
-        <v>19.8888888888889</v>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C7,C13:C18,C24:C28)</f>
+        <v>18.8235294117647</v>
       </c>
     </row>
   </sheetData>
@@ -1513,301 +2139,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>18.8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C12:C19)</f>
-        <v>19.625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C6,C12:C19,C25:C27)</f>
-        <v>19.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1830,163 +2168,169 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>20</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>14.1818181818182</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1994,60 +2338,48 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C13:C18)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>16</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C18:C19)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -2055,288 +2387,6 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C24:C27)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C7,C13:C18,C24:C27)</f>
-        <v>18.875</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>15.5555555555556</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C16:C19)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2353,11 +2403,11 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>16.1333333333333</v>
+        <f>AVERAGE(C2:C12,C18:C19,C25:C26)</f>
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12345" windowHeight="10920" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="10800" windowHeight="10875" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>名称</t>
   </si>
@@ -41,6 +41,9 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
     <t>旷野祭师</t>
   </si>
   <si>
@@ -62,12 +65,12 @@
     <t>诱敌草人</t>
   </si>
   <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
     <t>肥鼠晚宴</t>
   </si>
   <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
     <t>蛮古撼地兽</t>
   </si>
   <si>
-    <t>原野大祭师·鲁玛</t>
-  </si>
-  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -125,21 +125,21 @@
     <t>隐形术</t>
   </si>
   <si>
+    <t>传记·海市蜃楼·蛇</t>
+  </si>
+  <si>
     <t>破魔系教授</t>
   </si>
   <si>
-    <t>传记·海市蜃楼·蛇</t>
-  </si>
-  <si>
     <t>克隆术</t>
   </si>
   <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
     <t>缄言法师</t>
   </si>
   <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
     <t>幻域秘树</t>
   </si>
   <si>
@@ -164,27 +164,24 @@
     <t>圣殿斥候</t>
   </si>
   <si>
-    <t>炫目神光</t>
+    <t>圣殿弩手</t>
   </si>
   <si>
     <t>田园守望者</t>
   </si>
   <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
     <t>增援战线</t>
   </si>
   <si>
     <t>光明惩戒</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
   </si>
   <si>
     <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
   </si>
   <si>
     <t>明日之音·露娜</t>
@@ -1212,637 +1206,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C11:C19)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C25:C30)</f>
-        <v>19.8333333333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C5,C11:C19,C25:C30)</f>
-        <v>19.9473684210526</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>18</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C13:C21)</f>
-        <v>19.6666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C27:C29)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C7,C13:C21,C27:C29)</f>
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1869,75 +1232,374 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>20.6</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>21.8571428571429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C24:C28)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C28)</f>
+        <v>20.9411764705882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
@@ -1945,16 +1607,326 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
+        <v>19.8333333333333</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C13:C21)</f>
+        <v>19.8888888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C27:C29)</f>
+        <v>19.6666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C7,C13:C21,C27:C29)</f>
+        <v>19.8333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>21.4</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
@@ -1964,62 +1936,62 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2034,19 +2006,19 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C13:C18)</f>
-        <v>19.8333333333333</v>
+        <f>AVERAGE(C12:C18)</f>
+        <v>19.4285714285714</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -2057,47 +2029,41 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="3">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>16</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -2105,32 +2071,27 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C24:C28)</f>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="C30" s="3">
+        <f>AVERAGE(C24:C27)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C7,C13:C18,C24:C28)</f>
-        <v>18.8235294117647</v>
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C27)</f>
+        <v>19.3125</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2106,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2168,18 +2129,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2190,7 +2151,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2201,7 +2162,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2212,7 +2173,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2223,40 +2184,40 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2267,7 +2228,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -2278,7 +2239,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -2299,20 +2260,20 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>14.1818181818182</v>
+        <v>13.6363636363636</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2323,7 +2284,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -2344,10 +2305,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C18:C19)</f>
@@ -2356,7 +2317,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -2367,7 +2328,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2388,7 +2349,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
@@ -2403,11 +2364,11 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C12,C18:C19,C25:C26)</f>
-        <v>14.4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/dahetao/zz_dahetao_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10800" windowHeight="10875" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="12555" windowHeight="11160" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蛮石" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -125,24 +125,24 @@
     <t>隐形术</t>
   </si>
   <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
     <t>传记·海市蜃楼·蛇</t>
   </si>
   <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
     <t>克隆术</t>
   </si>
   <si>
     <t>学仆-脉冲型</t>
   </si>
   <si>
-    <t>缄言法师</t>
-  </si>
-  <si>
     <t>幻域秘树</t>
   </si>
   <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
     <t>幻象巨龙</t>
   </si>
   <si>
@@ -176,12 +176,12 @@
     <t>光明惩戒</t>
   </si>
   <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
     <t>传记·钢铁守卫</t>
   </si>
   <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -197,6 +197,9 @@
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
     <t>明日之音·露娜</t>
   </si>
   <si>
@@ -233,7 +236,7 @@
     <t>墨轩隐士</t>
   </si>
   <si>
-    <t>万物之灵</t>
+    <t>萌化术</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1209,6 +1212,903 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>19.8</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C12:C18)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C24:C28)</f>
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C6,C12:C18,C24:C28)</f>
+        <v>20.9411764705882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C13:C21)</f>
+        <v>20.6666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C27:C29)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C7,C13:C21,C27:C29)</f>
+        <v>20.3333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>21.4</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C12:C17)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C23:C27)</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C6,C12:C17,C23:C27)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1232,163 +2132,169 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>20.6</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>22</v>
-      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>13.8181818181818</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1396,669 +2302,48 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>21.8571428571429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C18:C19)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
         <v>18</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C24:C28)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C6,C12:C18,C24:C28)</f>
-        <v>20.9411764705882</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>19.8333333333333</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C13:C21)</f>
-        <v>19.8888888888889</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C27:C29)</f>
-        <v>19.6666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C7,C13:C21,C27:C29)</f>
-        <v>19.8333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>21.4</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C12:C18)</f>
-        <v>19.4285714285714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>16</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -2066,288 +2351,6 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C24:C27)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C6,C12:C18,C24:C27)</f>
-        <v>19.3125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1">
-        <f>AVERAGE(C2:C12)</f>
-        <v>13.6363636363636</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C18:C19)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C12,C18:C19,C25:C26)</f>
